--- a/data/trans_dic/P74B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 15,32</t>
+          <t>4,12; 15,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 26,52</t>
+          <t>10,26; 25,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,19; 97,63</t>
+          <t>78,51; 97,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,36; 59,98</t>
+          <t>35,14; 60,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 39,1</t>
+          <t>24,03; 39,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 37,11</t>
+          <t>22,88; 36,72</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,71</t>
+          <t>2,59; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,95</t>
+          <t>4,67; 13,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,62</t>
+          <t>3,49; 9,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,63; 85,75</t>
+          <t>69,4; 86,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,31; 75,35</t>
+          <t>61,02; 76,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,92; 72,14</t>
+          <t>55,6; 71,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,88; 30,23</t>
+          <t>20,75; 30,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,41; 37,31</t>
+          <t>26,91; 36,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,19; 33,34</t>
+          <t>23,95; 32,98</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 8,22</t>
+          <t>1,3; 8,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 15,02</t>
+          <t>5,07; 14,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 19,54</t>
+          <t>7,64; 19,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,4; 93,02</t>
+          <t>74,0; 93,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,46; 80,52</t>
+          <t>56,95; 81,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,62; 74,32</t>
+          <t>52,75; 74,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 33,36</t>
+          <t>20,03; 33,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,13; 36,04</t>
+          <t>23,09; 36,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 37,39</t>
+          <t>24,46; 37,3</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 19,95</t>
+          <t>8,78; 19,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 29,95</t>
+          <t>17,69; 30,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,0; 23,74</t>
+          <t>11,93; 24,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,31; 90,72</t>
+          <t>73,75; 90,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,82; 81,32</t>
+          <t>66,3; 80,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,19; 78,47</t>
+          <t>61,34; 78,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,62; 43,22</t>
+          <t>30,03; 42,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,84; 50,57</t>
+          <t>39,84; 50,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,04; 47,28</t>
+          <t>34,49; 46,78</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,66; 21,43</t>
+          <t>6,14; 22,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 25,55</t>
+          <t>9,37; 26,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 33,89</t>
+          <t>15,9; 32,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70,21; 93,36</t>
+          <t>69,42; 93,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,16; 77,68</t>
+          <t>53,94; 78,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,35; 71,66</t>
+          <t>49,3; 72,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,47; 47,76</t>
+          <t>30,32; 47,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,95; 47,19</t>
+          <t>30,13; 47,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,13; 46,8</t>
+          <t>32,42; 47,48</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,58</t>
+          <t>0,72; 7,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 15,02</t>
+          <t>5,07; 16,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,7</t>
+          <t>1,1; 10,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72,28; 91,6</t>
+          <t>72,56; 91,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,89; 68,26</t>
+          <t>46,2; 67,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>57,79; 81,66</t>
+          <t>59,48; 81,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,93; 34,4</t>
+          <t>22,16; 34,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,65; 37,49</t>
+          <t>24,38; 36,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,58; 40,7</t>
+          <t>25,81; 40,81</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,14</t>
+          <t>5,14; 12,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 18,29</t>
+          <t>9,24; 18,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,86</t>
+          <t>6,22; 14,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72,65; 87,89</t>
+          <t>72,62; 87,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,56; 74,07</t>
+          <t>59,24; 73,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>58,77; 75,44</t>
+          <t>59,23; 75,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,41; 35,61</t>
+          <t>26,07; 35,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,46; 39,86</t>
+          <t>30,45; 39,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,03; 37,31</t>
+          <t>27,16; 37,19</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,69</t>
+          <t>5,87; 12,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,11; 12,84</t>
+          <t>6,17; 12,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,95; 19,75</t>
+          <t>11,27; 19,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,31; 89,24</t>
+          <t>75,33; 89,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>60,8; 74,05</t>
+          <t>61,03; 73,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,22; 78,02</t>
+          <t>64,89; 78,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,01; 35,73</t>
+          <t>26,79; 35,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,31; 36,17</t>
+          <t>28,41; 36,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,72; 42,02</t>
+          <t>32,25; 41,5</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,1</t>
+          <t>6,15; 8,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,57</t>
+          <t>10,66; 14,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,39</t>
+          <t>10,8; 14,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,86; 85,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>64,96; 71,07</t>
+          <t>64,88; 71,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>62,85; 69,61</t>
+          <t>62,84; 69,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,28</t>
+          <t>28,31; 32,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,85</t>
+          <t>32,77; 36,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>31,73; 35,65</t>
+          <t>31,75; 35,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 15,48</t>
+          <t>4,52; 15,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 25,81</t>
+          <t>10,81; 25,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,51; 97,59</t>
+          <t>80,47; 97,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,14; 60,31</t>
+          <t>34,31; 59,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 39,31</t>
+          <t>23,44; 39,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,88; 36,72</t>
+          <t>21,96; 36,64</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,54</t>
+          <t>2,63; 8,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 13,05</t>
+          <t>5,04; 13,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,84</t>
+          <t>3,63; 9,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,4; 86,27</t>
+          <t>69,49; 85,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,02; 76,44</t>
+          <t>60,67; 75,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,6; 71,69</t>
+          <t>54,81; 71,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,75; 30,44</t>
+          <t>21,06; 30,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,91; 36,86</t>
+          <t>27,0; 37,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,95; 32,98</t>
+          <t>23,86; 33,13</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 8,0</t>
+          <t>1,28; 7,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 14,67</t>
+          <t>5,04; 14,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 19,09</t>
+          <t>7,71; 19,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,0; 93,05</t>
+          <t>72,94; 92,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,95; 81,02</t>
+          <t>56,83; 80,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,75; 74,3</t>
+          <t>51,52; 74,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,03; 33,36</t>
+          <t>20,64; 32,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,09; 36,06</t>
+          <t>23,83; 36,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,46; 37,3</t>
+          <t>24,54; 37,59</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 19,88</t>
+          <t>8,75; 19,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 30,49</t>
+          <t>17,62; 30,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 24,07</t>
+          <t>11,86; 23,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,75; 90,62</t>
+          <t>74,34; 90,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,3; 80,92</t>
+          <t>66,74; 81,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,34; 78,16</t>
+          <t>61,6; 78,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,03; 42,78</t>
+          <t>29,96; 42,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,84; 50,53</t>
+          <t>39,8; 50,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,49; 46,78</t>
+          <t>34,8; 47,0</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,14; 22,38</t>
+          <t>5,9; 20,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 26,48</t>
+          <t>8,26; 28,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,9; 32,45</t>
+          <t>16,76; 32,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,42; 93,4</t>
+          <t>68,71; 93,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,94; 78,27</t>
+          <t>54,16; 77,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,3; 72,5</t>
+          <t>49,53; 71,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,32; 47,44</t>
+          <t>30,5; 48,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,13; 47,64</t>
+          <t>30,56; 46,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,42; 47,48</t>
+          <t>32,6; 47,55</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,17</t>
+          <t>0,76; 7,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,07; 16,18</t>
+          <t>4,92; 15,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,51</t>
+          <t>1,06; 10,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72,56; 91,53</t>
+          <t>72,77; 91,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,2; 67,78</t>
+          <t>47,06; 67,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,48; 81,61</t>
+          <t>59,31; 81,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,16; 34,65</t>
+          <t>21,24; 34,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,38; 36,43</t>
+          <t>24,42; 36,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,81; 40,81</t>
+          <t>26,15; 40,53</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,26</t>
+          <t>5,11; 12,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,24; 18,39</t>
+          <t>9,05; 18,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 14,52</t>
+          <t>5,85; 14,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72,62; 87,65</t>
+          <t>73,2; 87,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,24; 73,56</t>
+          <t>59,51; 73,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,23; 75,57</t>
+          <t>59,2; 75,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,07; 35,56</t>
+          <t>26,28; 35,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,45; 39,67</t>
+          <t>30,22; 39,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,16; 37,19</t>
+          <t>26,53; 36,85</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,23</t>
+          <t>5,74; 12,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,17; 12,93</t>
+          <t>6,35; 13,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,27; 19,29</t>
+          <t>11,24; 19,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,33; 89,29</t>
+          <t>76,03; 88,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>61,03; 73,79</t>
+          <t>60,96; 74,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,89; 78,05</t>
+          <t>63,86; 78,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,79; 35,57</t>
+          <t>26,61; 35,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,41; 36,78</t>
+          <t>28,03; 36,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,25; 41,5</t>
+          <t>32,11; 41,68</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,98</t>
+          <t>6,29; 9,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,56</t>
+          <t>10,66; 14,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,8; 14,44</t>
+          <t>10,69; 14,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>79,86; 85,86</t>
+          <t>79,82; 85,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>64,88; 71,28</t>
+          <t>65,09; 71,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>62,84; 69,56</t>
+          <t>62,95; 69,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,31; 32,35</t>
+          <t>28,28; 32,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>32,77; 36,93</t>
+          <t>32,77; 36,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>31,75; 35,77</t>
+          <t>31,82; 35,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 15,57</t>
+          <t>3,81; 15,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 25,62</t>
+          <t>10,58; 26,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,47; 97,6</t>
+          <t>79,19; 97,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,31; 59,43</t>
+          <t>35,36; 59,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,44; 39,77</t>
+          <t>23,24; 39,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,96; 36,64</t>
+          <t>21,68; 37,11</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,83</t>
+          <t>2,59; 8,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 13,01</t>
+          <t>4,92; 13,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,76</t>
+          <t>3,35; 9,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,49; 85,14</t>
+          <t>69,63; 85,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,67; 75,89</t>
+          <t>60,31; 75,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,81; 71,21</t>
+          <t>54,92; 72,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,06; 30,64</t>
+          <t>20,88; 30,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,0; 37,71</t>
+          <t>27,41; 37,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,86; 33,13</t>
+          <t>24,19; 33,34</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,57</t>
+          <t>1,32; 8,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 14,97</t>
+          <t>5,65; 15,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 19,26</t>
+          <t>7,81; 19,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,94; 92,36</t>
+          <t>74,4; 93,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,83; 80,25</t>
+          <t>58,46; 80,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,52; 74,38</t>
+          <t>52,62; 74,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,64; 32,64</t>
+          <t>20,67; 33,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,83; 36,4</t>
+          <t>23,13; 36,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,54; 37,59</t>
+          <t>24,87; 37,39</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 19,56</t>
+          <t>9,11; 19,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 30,83</t>
+          <t>17,91; 29,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 23,79</t>
+          <t>12,0; 23,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,34; 90,64</t>
+          <t>74,31; 90,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,74; 81,92</t>
+          <t>66,82; 81,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,6; 78,59</t>
+          <t>61,19; 78,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,96; 42,43</t>
+          <t>30,62; 43,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,8; 50,92</t>
+          <t>39,84; 50,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>34,8; 47,0</t>
+          <t>35,04; 47,28</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 20,92</t>
+          <t>5,66; 21,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,26; 28,06</t>
+          <t>8,14; 25,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 32,38</t>
+          <t>16,22; 33,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,71; 93,09</t>
+          <t>70,21; 93,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,22 +1150,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,53; 71,83</t>
+          <t>49,35; 71,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,5; 48,71</t>
+          <t>30,47; 47,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,56; 46,87</t>
+          <t>29,95; 47,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,6; 47,55</t>
+          <t>32,13; 46,8</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,12</t>
+          <t>0,73; 6,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 15,36</t>
+          <t>4,83; 15,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,79</t>
+          <t>1,1; 10,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72,77; 91,27</t>
+          <t>72,28; 91,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,06; 67,69</t>
+          <t>46,89; 68,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>59,31; 81,98</t>
+          <t>57,79; 81,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,24; 34,64</t>
+          <t>21,93; 34,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,42; 36,5</t>
+          <t>23,65; 37,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,15; 40,53</t>
+          <t>25,58; 40,7</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 12,22</t>
+          <t>5,28; 12,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 18,47</t>
+          <t>9,19; 18,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 14,25</t>
+          <t>6,2; 14,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73,2; 87,78</t>
+          <t>72,65; 87,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,51; 73,74</t>
+          <t>59,56; 74,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,2; 75,82</t>
+          <t>58,77; 75,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,28; 35,09</t>
+          <t>26,41; 35,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,22; 39,8</t>
+          <t>30,46; 39,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,53; 36,85</t>
+          <t>27,03; 37,31</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,74; 12,32</t>
+          <t>5,81; 12,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,14</t>
+          <t>6,11; 12,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,24; 19,9</t>
+          <t>10,95; 19,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,03; 88,98</t>
+          <t>76,31; 89,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>60,96; 74,7</t>
+          <t>60,8; 74,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>63,86; 78,36</t>
+          <t>64,22; 78,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,61; 35,64</t>
+          <t>27,01; 35,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,03; 36,73</t>
+          <t>28,31; 36,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,11; 41,68</t>
+          <t>32,72; 42,02</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,02</t>
+          <t>6,25; 9,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,66</t>
+          <t>10,75; 14,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,69; 14,35</t>
+          <t>10,76; 14,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>79,82; 85,66</t>
+          <t>79,55; 85,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>65,09; 71,6</t>
+          <t>64,96; 71,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>62,95; 69,33</t>
+          <t>62,85; 69,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,28; 32,29</t>
+          <t>28,27; 32,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>32,77; 36,97</t>
+          <t>32,8; 36,85</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>31,82; 35,97</t>
+          <t>31,73; 35,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,78; 40,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,17; 79,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,63; 54,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,86%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 29,95</t>
+          <t>13,6; 28,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,82; 81,32</t>
+          <t>68,84; 86,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,84; 50,57</t>
+          <t>37,57; 51,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P74B-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 15,32</t>
+          <t>4,67; 16,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 40,07</t>
+          <t>18,23; 39,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 26,52</t>
+          <t>10,97; 26,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,19; 97,63</t>
+          <t>80,97; 97,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,17; 79,77</t>
+          <t>56,09; 80,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,36; 59,98</t>
+          <t>33,9; 60,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 39,1</t>
+          <t>23,47; 38,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,63; 54,8</t>
+          <t>37,12; 53,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 37,11</t>
+          <t>22,96; 37,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,71</t>
+          <t>2,61; 9,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,95</t>
+          <t>4,93; 13,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,62</t>
+          <t>3,53; 9,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69,63; 85,75</t>
+          <t>68,24; 84,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,31; 75,35</t>
+          <t>60,4; 76,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>54,92; 72,14</t>
+          <t>56,41; 71,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,88; 30,23</t>
+          <t>20,86; 30,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,41; 37,31</t>
+          <t>26,98; 37,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,19; 33,34</t>
+          <t>24,06; 33,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 8,22</t>
+          <t>1,29; 7,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 15,02</t>
+          <t>5,75; 15,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 19,54</t>
+          <t>7,82; 18,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,4; 93,02</t>
+          <t>74,14; 93,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,46; 80,52</t>
+          <t>57,28; 80,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,62; 74,32</t>
+          <t>50,73; 73,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,67; 33,36</t>
+          <t>20,57; 33,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,13; 36,04</t>
+          <t>22,71; 35,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 37,39</t>
+          <t>24,96; 37,1</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 19,95</t>
+          <t>9,01; 19,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,6; 28,46</t>
+          <t>13,75; 28,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,0; 23,74</t>
+          <t>11,66; 23,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,31; 90,72</t>
+          <t>74,39; 90,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>68,84; 86,35</t>
+          <t>69,08; 85,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,19; 78,47</t>
+          <t>60,78; 78,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,62; 43,22</t>
+          <t>29,9; 42,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,57; 51,73</t>
+          <t>38,53; 52,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,04; 47,28</t>
+          <t>34,9; 46,96</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,66; 21,43</t>
+          <t>5,71; 21,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 25,55</t>
+          <t>8,24; 26,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 33,89</t>
+          <t>15,74; 33,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>70,21; 93,36</t>
+          <t>70,65; 93,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,16; 77,68</t>
+          <t>54,61; 78,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,35; 71,66</t>
+          <t>50,32; 72,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,47; 47,76</t>
+          <t>30,27; 47,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,95; 47,19</t>
+          <t>30,55; 47,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,13; 46,8</t>
+          <t>33,04; 48,52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,58</t>
+          <t>0,74; 6,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 15,02</t>
+          <t>5,24; 16,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,7</t>
+          <t>1,08; 9,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72,28; 91,6</t>
+          <t>71,73; 90,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,89; 68,26</t>
+          <t>46,87; 68,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>57,79; 81,66</t>
+          <t>58,64; 81,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,93; 34,4</t>
+          <t>21,63; 34,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,65; 37,49</t>
+          <t>24,17; 36,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,58; 40,7</t>
+          <t>25,17; 40,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,14</t>
+          <t>5,5; 12,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,19; 18,29</t>
+          <t>9,18; 17,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 14,86</t>
+          <t>6,32; 14,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72,65; 87,89</t>
+          <t>72,42; 87,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>59,56; 74,07</t>
+          <t>58,33; 73,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>58,77; 75,44</t>
+          <t>58,56; 75,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,41; 35,61</t>
+          <t>26,2; 35,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,46; 39,86</t>
+          <t>30,16; 39,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,03; 37,31</t>
+          <t>26,4; 36,86</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,69</t>
+          <t>5,76; 12,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,11; 12,84</t>
+          <t>6,01; 12,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,95; 19,75</t>
+          <t>11,24; 19,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,31; 89,24</t>
+          <t>74,77; 88,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>60,8; 74,05</t>
+          <t>60,58; 74,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,22; 78,02</t>
+          <t>63,9; 77,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,01; 35,73</t>
+          <t>26,62; 35,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,31; 36,17</t>
+          <t>27,67; 36,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,72; 42,02</t>
+          <t>32,6; 41,44</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,1</t>
+          <t>6,2; 9,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,57</t>
+          <t>10,81; 14,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,39</t>
+          <t>10,71; 14,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,79; 85,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>64,96; 71,07</t>
+          <t>64,75; 70,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>62,85; 69,61</t>
+          <t>62,64; 69,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,28</t>
+          <t>28,34; 32,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,85</t>
+          <t>32,72; 36,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>31,73; 35,65</t>
+          <t>31,87; 36,1</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su pareja percibe algún tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8246</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25306</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17626</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33150</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46341</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31969</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41396</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>71646</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>49595</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4529; 15608</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16484; 35938</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11085; 26385</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29161; 35157</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37388; 53928</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22784; 40533</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31195; 51745</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58305; 84709</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38631; 62648</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11885</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18662</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15500</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>71702</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>99659</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>102443</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>83588</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>118321</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>117943</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6198; 21414</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11030; 29202</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9015; 24963</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>62412; 77682</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>87913; 110781</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>90145; 113921</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68690; 100508</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>99676; 137019</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>99842; 137593</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4997</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13047</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17546</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48421</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>47678</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48846</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53418</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60725</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66392</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1872; 11167</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8033; 21457</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10851; 26138</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42366; 53171</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39192; 55233</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38979; 56530</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41720; 67080</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47242; 74631</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>53804; 79983</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20002</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27046</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26824</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>58512</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>74541</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>87185</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>78513</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>101588</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>114009</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13222; 28841</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18220; 38035</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>18271; 36805</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>51974; 63385</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>65493; 81438</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>75400; 97504</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>64775; 91507</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>87575; 118426</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>98001; 131859</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9212</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13246</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21787</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>38752</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>43019</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43467</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47965</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>56265</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>65255</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4368; 16114</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6764; 21456</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14523; 30936</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>32502; 42903</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35055; 50352</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>35826; 51447</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37074; 58467</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>44700; 69551</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>54018; 79326</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3910</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11114</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>50116</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>51073</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>50204</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>54026</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>62187</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>54246</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>994; 8759</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6170; 19422</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1020; 9390</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>43096; 54352</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>41248; 60383</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>41316; 57528</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>42209; 67808</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>49751; 75702</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>41575; 66686</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>22127</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>34767</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22213</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>95526</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>120073</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>94762</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>117652</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>154840</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>116975</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>14533; 33166</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>24181; 47185</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14482; 32994</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>85294; 102824</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>104989; 132002</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>82030; 106285</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>100052; 136330</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>133733; 176628</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>97496; 136116</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>26721</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>29677</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>43545</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>111235</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>143257</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>133998</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>137956</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>172934</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>177543</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>18023; 39121</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>19554; 40743</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>32583; 56692</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>99991; 118944</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>127835; 156484</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>119344; 145046</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>118821; 156852</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>148488; 193922</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>155404; 197533</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>107100</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>172865</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>169085</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>507414</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>625640</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>592873</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>614514</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>798505</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>761958</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>87757; 128470</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>148641; 200744</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>145447; 194464</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>488369; 524803</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>594825; 651059</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>561515; 621681</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>574679; 654034</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>750687; 845000</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>718371; 813686</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>